--- a/docs/電腦打字國中中文甲組決賽名冊.xlsx
+++ b/docs/電腦打字國中中文甲組決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦打字國中中文甲組決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="192">
   <si>
     <t>序</t>
   </si>
@@ -48,49 +48,49 @@
     <t>大甲區大甲國中</t>
   </si>
   <si>
-    <t>黃昱翔</t>
-  </si>
-  <si>
-    <t>張曼莉</t>
-  </si>
-  <si>
-    <t>b33bj7</t>
-  </si>
-  <si>
-    <t>dx36r6</t>
-  </si>
-  <si>
-    <t>陳柏宏</t>
-  </si>
-  <si>
-    <t>jkf26rs9</t>
-  </si>
-  <si>
-    <t>yg54w4</t>
+    <t>陳永烜</t>
+  </si>
+  <si>
+    <t>劉羚蓁</t>
+  </si>
+  <si>
+    <t>a82h3</t>
+  </si>
+  <si>
+    <t>cd77t3</t>
   </si>
   <si>
     <t>大甲區順天國中</t>
   </si>
   <si>
+    <t>卓政霆</t>
+  </si>
+  <si>
+    <t>張志輝</t>
+  </si>
+  <si>
+    <t>d3b4</t>
+  </si>
+  <si>
+    <t>my11n9</t>
+  </si>
+  <si>
+    <t>許印嶙</t>
+  </si>
+  <si>
+    <t>h76nc1</t>
+  </si>
+  <si>
+    <t>k67hp8</t>
+  </si>
+  <si>
     <t>劉俊霆</t>
   </si>
   <si>
-    <t>張志輝</t>
-  </si>
-  <si>
-    <t>an20jk7</t>
-  </si>
-  <si>
-    <t>jk97g2</t>
-  </si>
-  <si>
-    <t>洪紹倫</t>
-  </si>
-  <si>
-    <t>yg87s9</t>
-  </si>
-  <si>
-    <t>w69w8</t>
+    <t>fr8nc4</t>
+  </si>
+  <si>
+    <t>k98tv9</t>
   </si>
   <si>
     <t>大肚區大道國中</t>
@@ -102,103 +102,94 @@
     <t>施俊楠</t>
   </si>
   <si>
-    <t>y23xb6</t>
-  </si>
-  <si>
-    <t>et52h4</t>
-  </si>
-  <si>
-    <t>余家熙</t>
-  </si>
-  <si>
-    <t>柯瓊英</t>
-  </si>
-  <si>
-    <t>jkf12wh7</t>
-  </si>
-  <si>
-    <t>tv41f8</t>
+    <t>g72h5</t>
+  </si>
+  <si>
+    <t>pet80hp2</t>
   </si>
   <si>
     <t>大里區光榮國中</t>
   </si>
   <si>
-    <t>邱若萍</t>
-  </si>
-  <si>
-    <t>張惠雯</t>
-  </si>
-  <si>
-    <t>xb34yg3</t>
-  </si>
-  <si>
-    <t>gwh12p8</t>
+    <t>高振哲</t>
+  </si>
+  <si>
+    <t>紀雅雯</t>
+  </si>
+  <si>
+    <t>e76d4</t>
+  </si>
+  <si>
+    <t>yg23fr2</t>
   </si>
   <si>
     <t>大里區成功國中</t>
   </si>
   <si>
-    <t>林冠丞</t>
-  </si>
-  <si>
-    <t>鄭夙芬</t>
-  </si>
-  <si>
-    <t>jkf82nc8</t>
-  </si>
-  <si>
-    <t>myg95r4</t>
-  </si>
-  <si>
-    <t>林幸誼</t>
+    <t>吳明竑</t>
   </si>
   <si>
     <t>許榮栓</t>
   </si>
   <si>
-    <t>m19c8</t>
-  </si>
-  <si>
-    <t>xb5sm4</t>
-  </si>
-  <si>
-    <t>詹秉叡</t>
-  </si>
-  <si>
-    <t>tv38pe6</t>
-  </si>
-  <si>
-    <t>m52t2</t>
+    <t>h26et8</t>
+  </si>
+  <si>
+    <t>whp5et3</t>
+  </si>
+  <si>
+    <t>吳育翔</t>
+  </si>
+  <si>
+    <t>nc22h5</t>
+  </si>
+  <si>
+    <t>pe41x4</t>
+  </si>
+  <si>
+    <t>張晉安</t>
+  </si>
+  <si>
+    <t>賴姿婷</t>
+  </si>
+  <si>
+    <t>cd91a5</t>
+  </si>
+  <si>
+    <t>rsm62p1</t>
   </si>
   <si>
     <t>大里區爽文國中</t>
   </si>
   <si>
-    <t>林楷倫</t>
+    <t>劉長霖</t>
   </si>
   <si>
     <t>黃千慧</t>
   </si>
   <si>
-    <t>sm72bj6</t>
-  </si>
-  <si>
-    <t>pet26sm3</t>
-  </si>
-  <si>
-    <t>大雅區大華國中</t>
-  </si>
-  <si>
-    <t>林俊華</t>
-  </si>
-  <si>
-    <t>蔡貴祿</t>
-  </si>
-  <si>
-    <t>m16r3</t>
-  </si>
-  <si>
-    <t>j65my5</t>
+    <t>dxb33g3</t>
+  </si>
+  <si>
+    <t>j30r6</t>
+  </si>
+  <si>
+    <t>江欣諭</t>
+  </si>
+  <si>
+    <t>et81rs2</t>
+  </si>
+  <si>
+    <t>kf69wh3</t>
+  </si>
+  <si>
+    <t>周紹暘</t>
+  </si>
+  <si>
+    <t>m25e5</t>
+  </si>
+  <si>
+    <t>n31my7</t>
   </si>
   <si>
     <t>大雅區大雅國中</t>
@@ -207,28 +198,25 @@
     <t>郭立羽</t>
   </si>
   <si>
-    <t>鄧承勝</t>
-  </si>
-  <si>
-    <t>my65rs8</t>
-  </si>
-  <si>
-    <t>w80d3</t>
-  </si>
-  <si>
-    <t>太平區中平國中</t>
-  </si>
-  <si>
-    <t>黃雅梵</t>
-  </si>
-  <si>
-    <t>梁峻貿</t>
-  </si>
-  <si>
-    <t>hp6w7</t>
-  </si>
-  <si>
-    <t>wh80r6</t>
+    <t>陳彥民</t>
+  </si>
+  <si>
+    <t>f7r7</t>
+  </si>
+  <si>
+    <t>et77r9</t>
+  </si>
+  <si>
+    <t>張辛憶</t>
+  </si>
+  <si>
+    <t>張光昭</t>
+  </si>
+  <si>
+    <t>bjk89d2</t>
+  </si>
+  <si>
+    <t>tv95kf5</t>
   </si>
   <si>
     <t>太平區新光國中</t>
@@ -240,379 +228,373 @@
     <t>陳宗生</t>
   </si>
   <si>
-    <t>rs95kf8</t>
-  </si>
-  <si>
-    <t>y41hp6</t>
-  </si>
-  <si>
-    <t>廖秀婷</t>
-  </si>
-  <si>
-    <t>xbj2k9</t>
-  </si>
-  <si>
-    <t>xbj83w5</t>
-  </si>
-  <si>
-    <t>陳嘉文</t>
-  </si>
-  <si>
-    <t>rs36xb2</t>
-  </si>
-  <si>
-    <t>bj91bj7</t>
+    <t>kf26m7</t>
+  </si>
+  <si>
+    <t>bjk31bj4</t>
+  </si>
+  <si>
+    <t>陳奕安</t>
+  </si>
+  <si>
+    <t>fr49fr3</t>
+  </si>
+  <si>
+    <t>sm44h8</t>
   </si>
   <si>
     <t>謝震威</t>
   </si>
   <si>
-    <t>gwh44m6</t>
-  </si>
-  <si>
-    <t>pe46s6</t>
-  </si>
-  <si>
-    <t>北屯區東山高中</t>
-  </si>
-  <si>
-    <t>姚睿</t>
-  </si>
-  <si>
-    <t>鍾蕙如</t>
-  </si>
-  <si>
-    <t>an87sm3</t>
-  </si>
-  <si>
-    <t>an82h1</t>
-  </si>
-  <si>
-    <t>李佳祐</t>
-  </si>
-  <si>
-    <t>nc79m3</t>
-  </si>
-  <si>
-    <t>tv81n3</t>
+    <t>dx5fr7</t>
+  </si>
+  <si>
+    <t>cdx9xb1</t>
+  </si>
+  <si>
+    <t>北屯區北新國中</t>
+  </si>
+  <si>
+    <t>邱翊晴</t>
+  </si>
+  <si>
+    <t>蔡明河</t>
+  </si>
+  <si>
+    <t>wh95jk6</t>
+  </si>
+  <si>
+    <t>bj8f5</t>
   </si>
   <si>
     <t>北屯區崇德國中</t>
   </si>
   <si>
-    <t>紀孟昕</t>
+    <t>黃元漢</t>
   </si>
   <si>
     <t>林秀珍</t>
   </si>
   <si>
-    <t>xbj27f8</t>
-  </si>
-  <si>
-    <t>nc76h8</t>
-  </si>
-  <si>
-    <t>徐柏凱</t>
-  </si>
-  <si>
-    <t>my5pe2</t>
-  </si>
-  <si>
-    <t>ygw90wh4</t>
+    <t>wh58nc9</t>
+  </si>
+  <si>
+    <t>gw80g5</t>
+  </si>
+  <si>
+    <t>何芊樺</t>
+  </si>
+  <si>
+    <t>d54m7</t>
+  </si>
+  <si>
+    <t>c81pe8</t>
+  </si>
+  <si>
+    <t>北屯區衛道高中</t>
+  </si>
+  <si>
+    <t>周于翔</t>
+  </si>
+  <si>
+    <t>郭學政</t>
+  </si>
+  <si>
+    <t>et4fr5</t>
+  </si>
+  <si>
+    <t>sm59e7</t>
+  </si>
+  <si>
+    <t>陳彥碩</t>
+  </si>
+  <si>
+    <t>x23et4</t>
+  </si>
+  <si>
+    <t>cd75jk1</t>
   </si>
   <si>
     <t>北區五權國中</t>
   </si>
   <si>
+    <t>陳姵甄</t>
+  </si>
+  <si>
+    <t>李黛君</t>
+  </si>
+  <si>
+    <t>hp8n3</t>
+  </si>
+  <si>
+    <t>v40k6</t>
+  </si>
+  <si>
     <t>楊濬齊</t>
   </si>
   <si>
-    <t>李黛君</t>
-  </si>
-  <si>
-    <t>b56f5</t>
-  </si>
-  <si>
-    <t>jk99nc3</t>
-  </si>
-  <si>
-    <t>陳姵甄</t>
-  </si>
-  <si>
-    <t>kf17nc4</t>
-  </si>
-  <si>
-    <t>jkf16p5</t>
-  </si>
-  <si>
-    <t>汪祐翰</t>
-  </si>
-  <si>
-    <t>an58r2</t>
-  </si>
-  <si>
-    <t>sm94p7</t>
-  </si>
-  <si>
-    <t>北區雙十國中</t>
-  </si>
-  <si>
-    <t>張明鴻</t>
-  </si>
-  <si>
-    <t>楊朝凱</t>
-  </si>
-  <si>
-    <t>et65d2</t>
-  </si>
-  <si>
-    <t>n83nc3</t>
-  </si>
-  <si>
-    <t>西屯區西苑高中</t>
-  </si>
-  <si>
-    <t>李鳳緯</t>
-  </si>
-  <si>
-    <t>楊雅雯</t>
-  </si>
-  <si>
-    <t>s37a4</t>
-  </si>
-  <si>
-    <t>n67fr3</t>
+    <t>gw26p3</t>
+  </si>
+  <si>
+    <t>h66nc3</t>
+  </si>
+  <si>
+    <t>張祐嘉</t>
+  </si>
+  <si>
+    <t>m42jk2</t>
+  </si>
+  <si>
+    <t>g61my6</t>
   </si>
   <si>
     <t>西屯區漢口國中</t>
   </si>
   <si>
+    <t>趙定安</t>
+  </si>
+  <si>
+    <t>顏永山</t>
+  </si>
+  <si>
+    <t>hp65a4</t>
+  </si>
+  <si>
+    <t>gw39t4</t>
+  </si>
+  <si>
+    <t>楊以平</t>
+  </si>
+  <si>
+    <t>gw27n5</t>
+  </si>
+  <si>
+    <t>t50c2</t>
+  </si>
+  <si>
     <t>林佳勳</t>
   </si>
   <si>
-    <t>黃仁芷</t>
-  </si>
-  <si>
-    <t>m4cd1</t>
-  </si>
-  <si>
-    <t>kf65w5</t>
-  </si>
-  <si>
-    <t>林廷叡</t>
-  </si>
-  <si>
-    <t>frs76tv4</t>
-  </si>
-  <si>
-    <t>xb36wh8</t>
+    <t>陳嘉祥</t>
+  </si>
+  <si>
+    <t>n71tv5</t>
+  </si>
+  <si>
+    <t>pe48e5</t>
+  </si>
+  <si>
+    <t>何承哲</t>
+  </si>
+  <si>
+    <t>rs85c8</t>
+  </si>
+  <si>
+    <t>rsm71my7</t>
   </si>
   <si>
     <t>西屯區福科國中</t>
   </si>
   <si>
-    <t>陳羽萱</t>
-  </si>
-  <si>
-    <t>廖勝雍</t>
-  </si>
-  <si>
-    <t>cd31fr8</t>
-  </si>
-  <si>
-    <t>kfr18wh3</t>
-  </si>
-  <si>
-    <t>高敏恩</t>
-  </si>
-  <si>
-    <t>rs87m1</t>
-  </si>
-  <si>
-    <t>v84pe8</t>
+    <t>劉承儒</t>
+  </si>
+  <si>
+    <t>戴宥畯</t>
+  </si>
+  <si>
+    <t>yg47nc7</t>
+  </si>
+  <si>
+    <t>jk59rs5</t>
   </si>
   <si>
     <t>沙鹿區沙鹿國中</t>
   </si>
   <si>
-    <t>陳昱睿</t>
+    <t>王俊銘</t>
   </si>
   <si>
     <t>王春昇</t>
   </si>
   <si>
-    <t>jk53kf2</t>
-  </si>
-  <si>
-    <t>smy37s7</t>
-  </si>
-  <si>
-    <t>陳泓佑</t>
-  </si>
-  <si>
-    <t>dx55wh4</t>
-  </si>
-  <si>
-    <t>d11x2</t>
-  </si>
-  <si>
-    <t>何秉諺</t>
-  </si>
-  <si>
-    <t>cdx26hp2</t>
-  </si>
-  <si>
-    <t>anc11dx3</t>
+    <t>yg92gw6</t>
+  </si>
+  <si>
+    <t>my80p4</t>
+  </si>
+  <si>
+    <t>陳暐翔</t>
+  </si>
+  <si>
+    <t>hp25e2</t>
+  </si>
+  <si>
+    <t>hpe3dx5</t>
+  </si>
+  <si>
+    <t>何睦翔</t>
+  </si>
+  <si>
+    <t>t26nc6</t>
+  </si>
+  <si>
+    <t>tv70s2</t>
+  </si>
+  <si>
+    <t>南屯區大業國中</t>
+  </si>
+  <si>
+    <t>何宸瑋</t>
+  </si>
+  <si>
+    <t>江俞學</t>
+  </si>
+  <si>
+    <t>jk13y8</t>
+  </si>
+  <si>
+    <t>w23x1</t>
+  </si>
+  <si>
+    <t>南屯區黎明國中</t>
+  </si>
+  <si>
+    <t>張以昕</t>
+  </si>
+  <si>
+    <t>黃惠葶</t>
+  </si>
+  <si>
+    <t>bj10et8</t>
+  </si>
+  <si>
+    <t>v24g4</t>
   </si>
   <si>
     <t>南區崇倫國中</t>
   </si>
   <si>
-    <t>葉鎮屹</t>
-  </si>
-  <si>
-    <t>曾曉芬</t>
-  </si>
-  <si>
-    <t>tv92my6</t>
-  </si>
-  <si>
-    <t>dx75my6</t>
-  </si>
-  <si>
     <t>黃頤煒</t>
   </si>
   <si>
+    <t>黃忠志</t>
+  </si>
+  <si>
+    <t>kf45pe3</t>
+  </si>
+  <si>
+    <t>kf28pe4</t>
+  </si>
+  <si>
+    <t>張宇傑</t>
+  </si>
+  <si>
     <t>林麗萍</t>
   </si>
   <si>
-    <t>sm8sm7</t>
-  </si>
-  <si>
-    <t>j62j7</t>
-  </si>
-  <si>
-    <t>烏日區光德國中</t>
-  </si>
-  <si>
-    <t>林正文</t>
-  </si>
-  <si>
-    <t>林家輝</t>
-  </si>
-  <si>
-    <t>xb89et1</t>
-  </si>
-  <si>
-    <t>frs56dx4</t>
+    <t>gw75h2</t>
+  </si>
+  <si>
+    <t>fr63x4</t>
   </si>
   <si>
     <t>烏日區明道中學</t>
   </si>
   <si>
-    <t>呂彥庠</t>
-  </si>
-  <si>
-    <t>黃淑珍</t>
-  </si>
-  <si>
-    <t>e6w3</t>
-  </si>
-  <si>
-    <t>gw8n7</t>
+    <t>陳啟倫</t>
+  </si>
+  <si>
+    <t>戴暐真</t>
+  </si>
+  <si>
+    <t>sm34y6</t>
+  </si>
+  <si>
+    <t>pet42pe7</t>
+  </si>
+  <si>
+    <t>張舒婷</t>
+  </si>
+  <si>
+    <t>kfr5hp8</t>
+  </si>
+  <si>
+    <t>wh97x8</t>
+  </si>
+  <si>
+    <t>吳冠鋐</t>
+  </si>
+  <si>
+    <t>gwh18j4</t>
+  </si>
+  <si>
+    <t>gwh50dx4</t>
   </si>
   <si>
     <t>潭子區潭秀國中</t>
   </si>
   <si>
-    <t>高羽涵</t>
-  </si>
-  <si>
-    <t>許錫誠</t>
-  </si>
-  <si>
-    <t>dxb61wh8</t>
-  </si>
-  <si>
-    <t>pe91dx2</t>
+    <t>梁振杰</t>
+  </si>
+  <si>
+    <t>王金村</t>
+  </si>
+  <si>
+    <t>yg77a5</t>
+  </si>
+  <si>
+    <t>my80gw9</t>
   </si>
   <si>
     <t>錢介梅</t>
   </si>
   <si>
-    <t>fr31yg4</t>
-  </si>
-  <si>
-    <t>y96j5</t>
-  </si>
-  <si>
-    <t>豐原區豐東國中</t>
-  </si>
-  <si>
-    <t>羅珮云</t>
-  </si>
-  <si>
-    <t>孫志宏</t>
-  </si>
-  <si>
-    <t>hp2h5</t>
-  </si>
-  <si>
-    <t>fr35yg7</t>
-  </si>
-  <si>
-    <t>李致昕</t>
-  </si>
-  <si>
-    <t>史國維</t>
-  </si>
-  <si>
-    <t>hp46et6</t>
-  </si>
-  <si>
-    <t>fr74k2</t>
+    <t>謝岳</t>
+  </si>
+  <si>
+    <t>j9n9</t>
+  </si>
+  <si>
+    <t>g54b5</t>
+  </si>
+  <si>
+    <t>羅彩瑄</t>
+  </si>
+  <si>
+    <t>v29e3</t>
+  </si>
+  <si>
+    <t>rs48a5</t>
   </si>
   <si>
     <t>豐原區豐南國中</t>
   </si>
   <si>
-    <t>李昌諭</t>
+    <t>劉承軒</t>
   </si>
   <si>
     <t>陳鈺錡</t>
   </si>
   <si>
-    <t>jk27n5</t>
-  </si>
-  <si>
-    <t>my6k2</t>
-  </si>
-  <si>
-    <t>林資慧</t>
-  </si>
-  <si>
-    <t>王佩琪</t>
-  </si>
-  <si>
-    <t>f15nc5</t>
-  </si>
-  <si>
-    <t>sm22b2</t>
+    <t>t49cd8</t>
+  </si>
+  <si>
+    <t>an18g2</t>
   </si>
   <si>
     <t>豐原區豐原國中</t>
   </si>
   <si>
-    <t>陳育霖</t>
+    <t>王騰億</t>
   </si>
   <si>
     <t>張瓊霙</t>
   </si>
   <si>
-    <t>sm36nc4</t>
-  </si>
-  <si>
-    <t>hpe35n9</t>
+    <t>tv94pe2</t>
+  </si>
+  <si>
+    <t>d79jk9</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1599,8 @@
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1674,19 +1657,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1697,13 +1680,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>19</v>
@@ -1720,13 +1703,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>22</v>
@@ -1766,19 +1749,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1789,19 +1772,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1812,19 +1795,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1835,19 +1818,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1858,19 +1841,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1881,19 +1864,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1904,19 +1887,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1927,19 +1910,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1950,19 +1933,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1973,19 +1956,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1996,19 +1979,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2019,19 +2002,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2042,19 +2025,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2065,19 +2048,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2088,19 +2071,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="F21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2111,19 +2094,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2134,19 +2117,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="F23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2157,19 +2140,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2180,19 +2163,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="F25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2203,19 +2186,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="F26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2226,19 +2209,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2249,19 +2232,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2272,19 +2255,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2295,19 +2278,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="E30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2318,19 +2301,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2344,16 +2327,16 @@
         <v>129</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>131</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2364,19 +2347,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2387,19 +2370,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="E34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2410,19 +2393,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2433,19 +2416,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2456,19 +2439,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2479,19 +2462,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2502,19 +2485,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="G39" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2525,19 +2508,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2548,19 +2531,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="E41" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2571,19 +2554,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2594,19 +2577,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="E43" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2617,19 +2600,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2640,19 +2623,19 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="F45" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2663,19 +2646,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
